--- a/Drives/Hawk Drive/IOLines.xlsx
+++ b/Drives/Hawk Drive/IOLines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakaz\Desktop\Electronics Projects\CenturionComputer\Drives\Hawk Drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F30A10-5B46-4F5B-9FD0-EC7B6047AFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61FBA45-E1D7-4790-B7CD-AFF68EC119BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1A859F52-CB20-46DC-B96D-B044D978F807}"/>
   </bookViews>
@@ -477,10 +477,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -802,31 +802,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:F45"/>
+  <dimension ref="B3:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="2.5" customWidth="1"/>
-    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="2.375" customWidth="1"/>
     <col min="6" max="6" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="2.5" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="2.5" customWidth="1"/>
+    <col min="12" max="12" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:12">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -836,91 +848,181 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="F6" s="1"/>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="F7" s="1"/>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="F8" s="1"/>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6">
+      <c r="F9" s="1"/>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="F10" s="1"/>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6">
+      <c r="F11" s="1"/>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="F12" s="1"/>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6">
+      <c r="F13" s="1"/>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" t="s">
         <v>22</v>
       </c>
@@ -930,28 +1032,53 @@
       <c r="F14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="F16" s="1"/>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -961,8 +1088,15 @@
       <c r="F17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="2:6">
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -972,8 +1106,15 @@
       <c r="F18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="2:6">
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" t="s">
         <v>37</v>
       </c>
@@ -983,46 +1124,69 @@
       <c r="F19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="H19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" t="s">
         <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="H20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="2:12">
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="F21" s="1"/>
+      <c r="H21" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="D23" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" t="s">
         <v>49</v>
       </c>
@@ -1033,7 +1197,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:12">
       <c r="B25" t="s">
         <v>52</v>
       </c>
@@ -1044,214 +1208,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" t="s">
-        <v>99</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>100</v>
-      </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="F45" t="s">
-        <v>104</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L15:L20"/>
     <mergeCell ref="F5:F13"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="F20:F23"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="F39:F44"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="47" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>